--- a/biology/Botanique/Hymenocardia/Hymenocardia.xlsx
+++ b/biology/Botanique/Hymenocardia/Hymenocardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenocardia est un genre de plantes à fleurs de la famille des Phyllanthaceae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 août 2017) :
 Hymenocardia acida Tul.
 Hymenocardia heudelotii Planch. ex Müll.Arg.
 Hymenocardia lyrata Tul.
 Hymenocardia punctata Wall. ex Lindl.
 Hymenocardia ripicola J.Léonard
 Hymenocardia ulmoides Oliv.
-Selon World Checklist of Selected Plant Families (WCSP)  (13 août 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (13 août 2017) :
 Hymenocardia acida Tul., Ann. Sci. Nat., Bot., sér. 3 (1851)
 Hymenocardia heudelotii Planch. ex Müll.Arg. (1864)
 variété Hymenocardia heudelotii var. chevalieri (Beille) J.Léonard (1963)
@@ -529,18 +543,18 @@
 Hymenocardia punctata Wall. ex Lindl., Intr. Nat. Syst. Bot. (1836)
 Hymenocardia ripicola J.Léonard (1963)
 Hymenocardia ulmoides Oliv. (1873)
-Selon NCBI  (13 août 2017)[4] :
+Selon NCBI  (13 août 2017) :
 Hymenocardia acida
 Hymenocardia punctata
 Hymenocardia ulmoides
-Selon The Plant List            (13 août 2017)[5] :
+Selon The Plant List            (13 août 2017) :
 Hymenocardia acida Tul.
 Hymenocardia heudelotii Planch. ex Müll.Arg.
 Hymenocardia lyrata Tul.
 Hymenocardia punctata Wall. ex Lindl.
 Hymenocardia ripicola J.Léonard
 Hymenocardia ulmoides Oliv.
-Selon Tropicos                                           (13 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hymenocardia acida Tul.
 Hymenocardia beillei A. Chev. ex Hutch. &amp; Dalziel
 Hymenocardia capensis (Pax) Hutch.
